--- a/3-it/it.xlsx
+++ b/3-it/it.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/3-it/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4BB94671-4102-F641-8946-07EE17563344}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{33B743C8-4AAB-2342-A2D2-F59592D9B8C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28840" yWindow="4000" windowWidth="21460" windowHeight="20280" xr2:uid="{54F07983-3283-A148-87F2-5686C8FE8BC6}"/>
+    <workbookView xWindow="28840" yWindow="4000" windowWidth="21460" windowHeight="20280" activeTab="1" xr2:uid="{54F07983-3283-A148-87F2-5686C8FE8BC6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NYT Books" sheetId="1" r:id="rId1"/>
+    <sheet name="Box Office" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Published Date</t>
   </si>
@@ -44,13 +45,20 @@
   <si>
     <t>Movie Opens: 2017-12-14</t>
   </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -99,15 +107,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCE0C77-AAC7-D243-B136-9C3B696F6F06}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -758,4 +767,815 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15D6349-94B2-C041-A69E-E28313F58F04}">
+  <dimension ref="A1:B99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>42986</v>
+      </c>
+      <c r="B2" s="8">
+        <v>50425786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>42987</v>
+      </c>
+      <c r="B3" s="8">
+        <v>44986221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>42988</v>
+      </c>
+      <c r="B4" s="8">
+        <v>27991412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>42989</v>
+      </c>
+      <c r="B5" s="8">
+        <v>8761479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>42990</v>
+      </c>
+      <c r="B6" s="8">
+        <v>11435492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>42991</v>
+      </c>
+      <c r="B7" s="8">
+        <v>7907855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>42992</v>
+      </c>
+      <c r="B8" s="8">
+        <v>7202374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>42993</v>
+      </c>
+      <c r="B9" s="8">
+        <v>19162071</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>42994</v>
+      </c>
+      <c r="B10" s="8">
+        <v>25835611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>42995</v>
+      </c>
+      <c r="B11" s="8">
+        <v>15105428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>42996</v>
+      </c>
+      <c r="B12" s="8">
+        <v>4208189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>42997</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5361721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>42998</v>
+      </c>
+      <c r="B14" s="8">
+        <v>4022988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>42999</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3932254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43000</v>
+      </c>
+      <c r="B16" s="8">
+        <v>9098118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43001</v>
+      </c>
+      <c r="B17" s="8">
+        <v>13395457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43002</v>
+      </c>
+      <c r="B18" s="8">
+        <v>7263919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43003</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1915789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43004</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2431782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43005</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1770420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43006</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1658424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43007</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4959012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B24" s="8">
+        <v>7811673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B25" s="8">
+        <v>4131757</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43010</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1092294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43011</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1382584</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43012</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1025111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43013</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1003257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43014</v>
+      </c>
+      <c r="B30" s="8">
+        <v>2703010</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43015</v>
+      </c>
+      <c r="B31" s="8">
+        <v>4302358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43016</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2966634</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43017</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1430288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43018</v>
+      </c>
+      <c r="B34" s="8">
+        <v>881594</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43019</v>
+      </c>
+      <c r="B35" s="8">
+        <v>681777</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43020</v>
+      </c>
+      <c r="B36" s="8">
+        <v>635382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43021</v>
+      </c>
+      <c r="B37" s="8">
+        <v>1960592</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43022</v>
+      </c>
+      <c r="B38" s="8">
+        <v>2633019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43023</v>
+      </c>
+      <c r="B39" s="8">
+        <v>1462022</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43024</v>
+      </c>
+      <c r="B40" s="8">
+        <v>472220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43025</v>
+      </c>
+      <c r="B41" s="8">
+        <v>509048</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43026</v>
+      </c>
+      <c r="B42" s="8">
+        <v>400690</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43027</v>
+      </c>
+      <c r="B43" s="8">
+        <v>417504</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43028</v>
+      </c>
+      <c r="B44" s="8">
+        <v>1002341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43029</v>
+      </c>
+      <c r="B45" s="8">
+        <v>1610554</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>43030</v>
+      </c>
+      <c r="B46" s="8">
+        <v>838768</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>43031</v>
+      </c>
+      <c r="B47" s="8">
+        <v>293868</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>43032</v>
+      </c>
+      <c r="B48" s="8">
+        <v>344482</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>43033</v>
+      </c>
+      <c r="B49" s="8">
+        <v>276823</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43034</v>
+      </c>
+      <c r="B50" s="8">
+        <v>263750</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>43035</v>
+      </c>
+      <c r="B51" s="8">
+        <v>693144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>43036</v>
+      </c>
+      <c r="B52" s="8">
+        <v>1142463</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>43037</v>
+      </c>
+      <c r="B53" s="8">
+        <v>667731</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>43038</v>
+      </c>
+      <c r="B54" s="8">
+        <v>252119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B55" s="8">
+        <v>471446</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>43040</v>
+      </c>
+      <c r="B56" s="8">
+        <v>161121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>43041</v>
+      </c>
+      <c r="B57" s="8">
+        <v>125208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>43042</v>
+      </c>
+      <c r="B58" s="8">
+        <v>275314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>43043</v>
+      </c>
+      <c r="B59" s="8">
+        <v>475891</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>43044</v>
+      </c>
+      <c r="B60" s="8">
+        <v>250083</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>43045</v>
+      </c>
+      <c r="B61" s="8">
+        <v>80551</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>43046</v>
+      </c>
+      <c r="B62" s="8">
+        <v>86693</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>43047</v>
+      </c>
+      <c r="B63" s="8">
+        <v>71360</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>43048</v>
+      </c>
+      <c r="B64" s="8">
+        <v>66508</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43049</v>
+      </c>
+      <c r="B65" s="8">
+        <v>139052</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>43050</v>
+      </c>
+      <c r="B66" s="8">
+        <v>197413</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>43051</v>
+      </c>
+      <c r="B67" s="8">
+        <v>106884</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43052</v>
+      </c>
+      <c r="B68" s="8">
+        <v>34207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>43053</v>
+      </c>
+      <c r="B69" s="8">
+        <v>33411</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>43054</v>
+      </c>
+      <c r="B70" s="8">
+        <v>32074</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>43055</v>
+      </c>
+      <c r="B71" s="8">
+        <v>20376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>43056</v>
+      </c>
+      <c r="B72" s="8">
+        <v>39044</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>43057</v>
+      </c>
+      <c r="B73" s="8">
+        <v>68828</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>43058</v>
+      </c>
+      <c r="B74" s="8">
+        <v>42235</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>43059</v>
+      </c>
+      <c r="B75" s="8">
+        <v>22573</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>43060</v>
+      </c>
+      <c r="B76" s="8">
+        <v>21871</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>43061</v>
+      </c>
+      <c r="B77" s="8">
+        <v>32506</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>43062</v>
+      </c>
+      <c r="B78" s="8">
+        <v>24730</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>43063</v>
+      </c>
+      <c r="B79" s="8">
+        <v>68355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>43064</v>
+      </c>
+      <c r="B80" s="8">
+        <v>76229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>43065</v>
+      </c>
+      <c r="B81" s="8">
+        <v>41557</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>43066</v>
+      </c>
+      <c r="B82" s="8">
+        <v>12598</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>43067</v>
+      </c>
+      <c r="B83" s="8">
+        <v>12523</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>43068</v>
+      </c>
+      <c r="B84" s="8">
+        <v>11881</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>43069</v>
+      </c>
+      <c r="B85" s="8">
+        <v>12731</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B86" s="8">
+        <v>29664</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>43071</v>
+      </c>
+      <c r="B87" s="8">
+        <v>50224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>43072</v>
+      </c>
+      <c r="B88" s="8">
+        <v>30613</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>43073</v>
+      </c>
+      <c r="B89" s="8">
+        <v>8401</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>43074</v>
+      </c>
+      <c r="B90" s="8">
+        <v>9432</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>43075</v>
+      </c>
+      <c r="B91" s="8">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>43076</v>
+      </c>
+      <c r="B92" s="8">
+        <v>9107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>43077</v>
+      </c>
+      <c r="B93" s="8">
+        <v>18676</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>43078</v>
+      </c>
+      <c r="B94" s="8">
+        <v>34489</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>43079</v>
+      </c>
+      <c r="B95" s="8">
+        <v>20140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B96" s="8">
+        <v>6247</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>43081</v>
+      </c>
+      <c r="B97" s="8">
+        <v>7124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43082</v>
+      </c>
+      <c r="B98" s="8">
+        <v>6528</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>43083</v>
+      </c>
+      <c r="B99" s="8">
+        <v>6382</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/3-it/it.xlsx
+++ b/3-it/it.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/3-it/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{33B743C8-4AAB-2342-A2D2-F59592D9B8C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0D97072F-BF90-4E4E-A3D9-9B46CDB8F11C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28840" yWindow="4000" windowWidth="21460" windowHeight="20280" activeTab="1" xr2:uid="{54F07983-3283-A148-87F2-5686C8FE8BC6}"/>
+    <workbookView xWindow="10020" yWindow="3480" windowWidth="21460" windowHeight="20280" activeTab="2" xr2:uid="{54F07983-3283-A148-87F2-5686C8FE8BC6}"/>
   </bookViews>
   <sheets>
     <sheet name="NYT Books" sheetId="1" r:id="rId1"/>
     <sheet name="Box Office" sheetId="2" r:id="rId2"/>
+    <sheet name="Weekly Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Published Date</t>
   </si>
@@ -50,6 +51,15 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Week End</t>
+  </si>
+  <si>
+    <t>Week Start</t>
+  </si>
+  <si>
+    <t>Box Office Gross</t>
   </si>
 </sst>
 </file>
@@ -434,7 +444,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -773,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15D6349-94B2-C041-A69E-E28313F58F04}">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
@@ -1578,4 +1588,337 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76BAA0E-433C-064B-A0AA-49D83DB43202}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <f>B2-6</f>
+        <v>42960</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42966</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A21" si="0">B3-6</f>
+        <v>42967</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42973</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>42974</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42980</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>42981</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42987</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <f>SUM('Box Office'!B2:B3)</f>
+        <v>95412007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>42988</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42994</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <f>SUM('Box Office'!B4:B10)</f>
+        <v>108296294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>42995</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43001</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <f>SUM('Box Office'!B11:B17)</f>
+        <v>55124155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>43002</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43008</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <f>SUM('Box Office'!B18:B24)</f>
+        <v>27811019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>43009</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43015</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8">
+        <f>SUM('Box Office'!B25:B31)</f>
+        <v>15640371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>43016</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43022</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8">
+        <f>SUM('Box Office'!B32:B38)</f>
+        <v>11189286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>43023</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43029</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8">
+        <f>SUM('Box Office'!B39:B45)</f>
+        <v>5874379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>43030</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43036</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8">
+        <f>SUM('Box Office'!B46:B52)</f>
+        <v>3853298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>43037</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43043</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8">
+        <f>SUM('Box Office'!B53:B59)</f>
+        <v>2428830</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>43044</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43050</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8">
+        <f>SUM('Box Office'!B60:B66)</f>
+        <v>891660</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>43051</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43057</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="8">
+        <f>SUM('Box Office'!B67:B73)</f>
+        <v>334824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>43058</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43064</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8">
+        <f>SUM('Box Office'!B74:B80)</f>
+        <v>288499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>43065</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43071</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="8">
+        <f>SUM('Box Office'!B81:B87)</f>
+        <v>171178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>43072</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43078</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8">
+        <f>SUM('Box Office'!B88:B94)</f>
+        <v>119527</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>43079</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43085</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19" s="8">
+        <f>SUM('Box Office'!B95:B99)</f>
+        <v>46421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>43086</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43092</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>43093</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43099</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/3-it/it.xlsx
+++ b/3-it/it.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/3-it/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0D97072F-BF90-4E4E-A3D9-9B46CDB8F11C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FEE7CBF2-D9EA-964E-96AA-C764A3196711}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="3480" windowWidth="21460" windowHeight="20280" activeTab="2" xr2:uid="{54F07983-3283-A148-87F2-5686C8FE8BC6}"/>
+    <workbookView xWindow="1240" yWindow="3740" windowWidth="21460" windowHeight="20280" activeTab="3" xr2:uid="{54F07983-3283-A148-87F2-5686C8FE8BC6}"/>
   </bookViews>
   <sheets>
     <sheet name="NYT Books" sheetId="1" r:id="rId1"/>
     <sheet name="Box Office" sheetId="2" r:id="rId2"/>
     <sheet name="Weekly Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Correlation" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Published Date</t>
   </si>
@@ -60,6 +61,9 @@
   </si>
   <si>
     <t>Box Office Gross</t>
+  </si>
+  <si>
+    <t>Correlation:</t>
   </si>
 </sst>
 </file>
@@ -1594,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76BAA0E-433C-064B-A0AA-49D83DB43202}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1921,4 +1925,157 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31F5F0E-C8C7-8347-973F-3B83D5324D31}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>95412007</v>
+      </c>
+      <c r="D2">
+        <f>CORREL(A2:A16,B2:B16)</f>
+        <v>-0.67479724054502721</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>108296294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>55124155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>27811019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>15640371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>11189286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>5874379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>3853298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2428830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>891660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>334824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>288499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>171178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>119527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>46421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/3-it/it.xlsx
+++ b/3-it/it.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/3-it/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindsayhuth/Documents/GitHub/movies-and-their-books/3-it/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FEE7CBF2-D9EA-964E-96AA-C764A3196711}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA8F00E-4ADB-B140-B9CA-2379E43A96AE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="3740" windowWidth="21460" windowHeight="20280" activeTab="3" xr2:uid="{54F07983-3283-A148-87F2-5686C8FE8BC6}"/>
+    <workbookView xWindow="1240" yWindow="460" windowWidth="23420" windowHeight="16400" activeTab="4" xr2:uid="{54F07983-3283-A148-87F2-5686C8FE8BC6}"/>
   </bookViews>
   <sheets>
     <sheet name="NYT Books" sheetId="1" r:id="rId1"/>
     <sheet name="Box Office" sheetId="2" r:id="rId2"/>
     <sheet name="Weekly Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Correlation" sheetId="4" r:id="rId4"/>
+    <sheet name="Box Office $ Correlation" sheetId="4" r:id="rId4"/>
+    <sheet name="Rank + In Theaters Corr" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Published Date</t>
   </si>
@@ -64,6 +65,12 @@
   </si>
   <si>
     <t>Correlation:</t>
+  </si>
+  <si>
+    <t>In Theaters? (1 = Y, 0 = N)</t>
+  </si>
+  <si>
+    <t>Correlation once first movie opens:</t>
   </si>
 </sst>
 </file>
@@ -448,7 +455,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B1" sqref="B1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1931,7 +1938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31F5F0E-C8C7-8347-973F-3B83D5324D31}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2078,4 +2085,351 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB81125-BC00-DD4B-90FA-ED61155531DD}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <f>B2-6</f>
+        <v>42960</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42966</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>CORREL(C2:C21,D2:D21)</f>
+        <v>-0.64951905283832889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A21" si="0">B3-6</f>
+        <v>42967</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42973</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>42974</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42980</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>42981</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42987</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>CORREL(C5:C21,D5:D21)</f>
+        <v>-0.5188052414005403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>42988</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42994</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>42995</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43001</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>43002</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43008</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>43009</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43015</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>43016</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43022</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>43023</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43029</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>43030</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43036</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>43037</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43043</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>43044</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43050</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>43051</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43057</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>43058</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43064</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>43065</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43071</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>43072</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43078</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>43079</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43085</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>43086</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43092</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>43093</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43099</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>